--- a/biology/Botanique/Jacobaea_adonidifolia/Jacobaea_adonidifolia.xlsx
+++ b/biology/Botanique/Jacobaea_adonidifolia/Jacobaea_adonidifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacobaea adonidifolia, le Séneçon à feuilles d'adonis, est une espèce de plantes à fleurs de la famille des Asteraceae, endémique d'Europe et trouvé seulement en France et en Espagne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacobaea adonidifolia, le Séneçon à feuilles d'adonis, est une espèce de plantes à fleurs de la famille des Asteraceae, endémique d'Europe et trouvé seulement en France et en Espagne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées.
 </t>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois classée dans le genre Senecio, sous le nom de Senecio adonidifolius Loisel., il a été proposé en 2006 de reclasser cette espèce dans le genre Jacobaea par Pelser &amp; Veldkamp[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois classée dans le genre Senecio, sous le nom de Senecio adonidifolius Loisel., il a été proposé en 2006 de reclasser cette espèce dans le genre Jacobaea par Pelser &amp; Veldkamp.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Séneçon à feuilles d'adonis est une plante caractéristique des sols sableux et siliceux du Massif central, des Pyrénées et de plusieurs massifs montagneux de la péninsule ibérique. Il y accompagne souvent le genêt purgatif.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Senecio adonidifolius Loisel.</t>
         </is>
